--- a/countries/Spain_3.xlsx
+++ b/countries/Spain_3.xlsx
@@ -819,7 +819,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
